--- a/contratos/contratos-10-2009.xlsx
+++ b/contratos/contratos-10-2009.xlsx
@@ -409,7 +409,7 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LEMIRO PABLO PIETROBONI S.A.</t>
@@ -679,235 +679,235 @@
     <t>92</t>
   </si>
   <si>
-    <t>1.730,00</t>
-  </si>
-  <si>
-    <t>37.498,60</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>3.225,84</t>
-  </si>
-  <si>
-    <t>24.220,00</t>
-  </si>
-  <si>
-    <t>96.496,84</t>
-  </si>
-  <si>
-    <t>8.296,75</t>
-  </si>
-  <si>
-    <t>1.240,50</t>
-  </si>
-  <si>
-    <t>766,00</t>
-  </si>
-  <si>
-    <t>5.158,16</t>
-  </si>
-  <si>
-    <t>231,90</t>
-  </si>
-  <si>
-    <t>5.736,22</t>
-  </si>
-  <si>
-    <t>89,60</t>
-  </si>
-  <si>
-    <t>3.585,00</t>
-  </si>
-  <si>
-    <t>1.598,04</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>18,12</t>
-  </si>
-  <si>
-    <t>4.352,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>544,00</t>
-  </si>
-  <si>
-    <t>14.352,00</t>
-  </si>
-  <si>
-    <t>1.472,00</t>
-  </si>
-  <si>
-    <t>3.168,00</t>
-  </si>
-  <si>
-    <t>7.904,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>13.036,50</t>
-  </si>
-  <si>
-    <t>392,04</t>
-  </si>
-  <si>
-    <t>426,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>903,50</t>
-  </si>
-  <si>
-    <t>118,60</t>
-  </si>
-  <si>
-    <t>451.425,96</t>
-  </si>
-  <si>
-    <t>138,50</t>
-  </si>
-  <si>
-    <t>198,40</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>780,90</t>
-  </si>
-  <si>
-    <t>2.492,00</t>
-  </si>
-  <si>
-    <t>4.443,99</t>
-  </si>
-  <si>
-    <t>3.135,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>1.570,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>1.013,26</t>
-  </si>
-  <si>
-    <t>12.491,15</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>4.770,31</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>386,75</t>
-  </si>
-  <si>
-    <t>3.630,00</t>
-  </si>
-  <si>
-    <t>628,00</t>
-  </si>
-  <si>
-    <t>8.563,98</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>1.326,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>4.663,00</t>
-  </si>
-  <si>
-    <t>662,58</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>168,22</t>
-  </si>
-  <si>
-    <t>2.285,00</t>
-  </si>
-  <si>
-    <t>1.118,00</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>475,00</t>
-  </si>
-  <si>
-    <t>805,50</t>
-  </si>
-  <si>
-    <t>966,00</t>
-  </si>
-  <si>
-    <t>3.179,88</t>
-  </si>
-  <si>
-    <t>7.007,76</t>
-  </si>
-  <si>
-    <t>350.716,53</t>
-  </si>
-  <si>
-    <t>991,26</t>
+    <t>1730.00</t>
+  </si>
+  <si>
+    <t>37498.60</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>3225.84</t>
+  </si>
+  <si>
+    <t>24220.00</t>
+  </si>
+  <si>
+    <t>96496.84</t>
+  </si>
+  <si>
+    <t>8296.75</t>
+  </si>
+  <si>
+    <t>1240.50</t>
+  </si>
+  <si>
+    <t>766.00</t>
+  </si>
+  <si>
+    <t>5158.16</t>
+  </si>
+  <si>
+    <t>231.90</t>
+  </si>
+  <si>
+    <t>5736.22</t>
+  </si>
+  <si>
+    <t>89.60</t>
+  </si>
+  <si>
+    <t>3585.00</t>
+  </si>
+  <si>
+    <t>1598.04</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>4352.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>544.00</t>
+  </si>
+  <si>
+    <t>14352.00</t>
+  </si>
+  <si>
+    <t>1472.00</t>
+  </si>
+  <si>
+    <t>3168.00</t>
+  </si>
+  <si>
+    <t>7904.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>13036.50</t>
+  </si>
+  <si>
+    <t>392.04</t>
+  </si>
+  <si>
+    <t>426.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>903.50</t>
+  </si>
+  <si>
+    <t>118.60</t>
+  </si>
+  <si>
+    <t>451425.96</t>
+  </si>
+  <si>
+    <t>138.50</t>
+  </si>
+  <si>
+    <t>198.40</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>780.90</t>
+  </si>
+  <si>
+    <t>2492.00</t>
+  </si>
+  <si>
+    <t>4443.99</t>
+  </si>
+  <si>
+    <t>3135.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>1570.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>1013.26</t>
+  </si>
+  <si>
+    <t>12491.15</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>4770.31</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>386.75</t>
+  </si>
+  <si>
+    <t>3630.00</t>
+  </si>
+  <si>
+    <t>628.00</t>
+  </si>
+  <si>
+    <t>8563.98</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>1326.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>4663.00</t>
+  </si>
+  <si>
+    <t>662.58</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>168.22</t>
+  </si>
+  <si>
+    <t>2285.00</t>
+  </si>
+  <si>
+    <t>1118.00</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>805.50</t>
+  </si>
+  <si>
+    <t>966.00</t>
+  </si>
+  <si>
+    <t>3179.88</t>
+  </si>
+  <si>
+    <t>7007.76</t>
+  </si>
+  <si>
+    <t>350716.53</t>
+  </si>
+  <si>
+    <t>991.26</t>
   </si>
 </sst>
 </file>
